--- a/Auxiliares/Tablas.xlsx
+++ b/Auxiliares/Tablas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ORT\GitHub\2022_ORT_Prog-Nuevas-Tecnologias_Proyecto-Recetario\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20AF361E-712A-4236-ABF5-804E348781F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BB3ADF-5514-4DEF-8C45-259B0E8BC8D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{C83AE3FF-B6ED-4757-BA91-02E169A46579}"/>
+    <workbookView minimized="1" xWindow="40245" yWindow="555" windowWidth="26655" windowHeight="13620" activeTab="3" xr2:uid="{C83AE3FF-B6ED-4757-BA91-02E169A46579}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -7917,7 +7917,7 @@
         <v>122</v>
       </c>
       <c r="D328" t="str">
-        <f t="shared" ref="D328:D391" si="6">"'"&amp;B328&amp;"');"</f>
+        <f t="shared" ref="D328:D343" si="6">"'"&amp;B328&amp;"');"</f>
         <v>'Tuna');</v>
       </c>
     </row>
@@ -15352,8 +15352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ED7240-A9DA-4F4F-97AA-2C33315393DE}">
   <dimension ref="B1:N936"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A897" workbookViewId="0">
-      <selection activeCell="H940" sqref="H940"/>
+    <sheetView tabSelected="1" topLeftCell="A870" workbookViewId="0">
+      <selection activeCell="O877" sqref="O877"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48094,7 +48094,7 @@
         <v>'Cantidad'</v>
       </c>
       <c r="N877" t="str">
-        <f t="shared" si="56"/>
+        <f>");"</f>
         <v>);</v>
       </c>
     </row>
